--- a/PCB/Waveform Generator/Assembly and order files/BOM.xlsx
+++ b/PCB/Waveform Generator/Assembly and order files/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nanodyn-my.sharepoint.com/personal/nicholas_nanodyn_co_za/Documents/Desktop/GIT repository/Waveform-generator/PCB/Waveform Generator/assembly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nanodyn-my.sharepoint.com/personal/nicholas_nanodyn_co_za/Documents/Desktop/GIT repository/Waveform-generator/PCB/Waveform Generator/Assembly and order files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="1_{E09C17EF-A749-4AAA-B482-4A35AFF85C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBA85F49-0DDF-418F-8DCA-060D775D5D5F}"/>
   <bookViews>
-    <workbookView xWindow="-9855" yWindow="-16770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
